--- a/Ventas.xlsx
+++ b/Ventas.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,20 +11,28 @@
     <sheet name="Ventas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -39,12 +46,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -57,14 +79,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,13 +455,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -463,49 +491,318 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1001</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bananos</t>
+          <t>Arroz 1kg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>456</v>
+        <v>250</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Distribuidora San Juan</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>560</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1002</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jabon</t>
+          <t>Frijol Negro 1kg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Granos del Campo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>324</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Azúcar 1kg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>180</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Central Azucarera</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aceite Vegetal 1L</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>150</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Aceiteras Centroamérica</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jabón en barra</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>300</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Limpio S.A.</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Detergente 1kg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>210</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Productos La Fábrica</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coca Cola 600ml</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>500</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Coca Cola Femsa</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agua Pura 600ml</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>480</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PuraVida S.A.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Galletas María 3pk</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>350</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Alimentos Dulce Hogar</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pan Molde Blanco</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>260</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Panadería El Trigal</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Huevos docena</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>90</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Granja El Buen Huevo</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Leche Entera 1L</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>140</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Lácteos San José</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Café Molido 200g</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Café Montaña Alta</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Atún en Agua 140g</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>120</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mariscos del Pacífico</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti 400g</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>260</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Pastas Don Tano</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
@@ -519,13 +816,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -545,12 +842,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jose Miguel</t>
+          <t>Luis Pérez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -560,17 +859,155 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jose Miguel</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Guastatoya</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carlos Jiménez</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Zona 5 Guatemala</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sanarate</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sansare</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Escuela Mixta San Juan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Guastatoya</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Doña Irma</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Morazán</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ferre El Amigo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sanarate</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MiniMarket El Ahorro</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>San Antonio La Paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Granja El Buen Huevo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>San Pedro Pinula</t>
         </is>
       </c>
     </row>
@@ -585,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,44 +1031,1654 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>fecha</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>producto</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>cliente</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>cantidad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>precio_unit</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>anulada</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Producto</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Cliente</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>45931.50902777778</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pan Molde Blanco</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>834.9</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pan Molde Blanco</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>45932.55833333333</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Coca Cola 600ml</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Luis Pérez</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Coca Cola 600ml</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Luis Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>45933.40625</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Arroz 1kg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>306.25</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Arroz 1kg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>45933.71527777778</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Aceite Vegetal 1L</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>258</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Aceite Vegetal 1L</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>45934.3625</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Detergente 1kg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Doña Irma</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>154</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Detergente 1kg</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Doña Irma</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>45934.46875</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Jabón en barra</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ferre El Amigo</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>150</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Jabón en barra</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Ferre El Amigo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>45935.58819444444</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Azúcar 1kg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Escuela Mixta San Juan</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Azúcar 1kg</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Escuela Mixta San Juan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>45935.77083333334</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Agua Pura 600ml</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MiniMarket El Ahorro</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>196</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Agua Pura 600ml</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>MiniMarket El Ahorro</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>45936.37916666667</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Atún en Agua 140g</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Carlos Jiménez</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>39</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="G10" t="n">
+        <v>427.83</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Atún en Agua 140g</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Carlos Jiménez</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>45937.17708333334</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti 400g</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Carlos Jiménez</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>33</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>267.63</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti 400g</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Carlos Jiménez</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>45938.52083333334</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Huevos docena</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28</v>
+      </c>
+      <c r="G12" t="n">
+        <v>420</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Huevos docena</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>45939.68055555555</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Café Molido 200g</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>33</v>
+      </c>
+      <c r="G13" t="n">
+        <v>132</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Café Molido 200g</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>45940.41666666666</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arroz 1kg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Luis Pérez</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>255</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Arroz 1kg</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Luis Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>45941.63541666666</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Aceite Vegetal 1L</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Granja El Buen Huevo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>405</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Aceite Vegetal 1L</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Granja El Buen Huevo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>45942.45833333334</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Galletas María 3pk</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MiniMarket El Ahorro</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>320</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Galletas María 3pk</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>MiniMarket El Ahorro</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>45942.65277777778</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Leche Entera 1L</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Escuela Mixta San Juan</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>210</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Leche Entera 1L</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Escuela Mixta San Juan</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>45943.38194444445</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Coca Cola 600ml</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="G18" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Coca Cola 600ml</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>45944.54166666666</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti 400g</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti 400g</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>45945.43402777778</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Atún en Agua 140g</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Doña Irma</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>110</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Atún en Agua 140g</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Doña Irma</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>45946.73958333334</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Pan Molde Blanco</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pan Molde Blanco</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>45947.35416666666</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Detergente 1kg</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ferre El Amigo</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="G22" t="n">
+        <v>225</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Detergente 1kg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Ferre El Amigo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>45947.49305555555</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Huevos docena</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Granja El Buen Huevo</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>28</v>
+      </c>
+      <c r="G23" t="n">
+        <v>224</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Huevos docena</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Granja El Buen Huevo</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>45948.39583333334</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Leche Entera 1L</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Luis Pérez</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>215</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Leche Entera 1L</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Luis Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>45948.61458333334</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Agua Pura 600ml</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>306</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Agua Pura 600ml</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>45949.6875</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Galletas María 3pk</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Carlos Jiménez</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="G26" t="n">
+        <v>206.25</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Galletas María 3pk</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Carlos Jiménez</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>45950.54861111111</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Frijol Negro 1kg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>18</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="G27" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Frijol Negro 1kg</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>45950.75</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Café Molido 200g</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Doña Irma</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Café Molido 200g</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Doña Irma</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>45951.48611111111</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Arroz 1kg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MiniMarket El Ahorro</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12</v>
+      </c>
+      <c r="G29" t="n">
+        <v>600</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Arroz 1kg</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>MiniMarket El Ahorro</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>45952.41319444445</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Aceite Vegetal 1L</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22</v>
+      </c>
+      <c r="G30" t="n">
+        <v>220</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Aceite Vegetal 1L</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>45952.63541666666</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Coca Cola 600ml</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Escuela Mixta San Juan</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>25</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>180</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Coca Cola 600ml</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Escuela Mixta San Juan</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>45953.41666666666</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Atún en Agua 140g</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="G32" t="n">
+        <v>135</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Atún en Agua 140g</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>45953.55555555555</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Detergente 1kg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19</v>
+      </c>
+      <c r="G33" t="n">
+        <v>285</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Detergente 1kg</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>45953.73958333334</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti 400g</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Luis Pérez</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>30</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G34" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti 400g</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Luis Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>45954.34375</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Huevos docena</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>28</v>
+      </c>
+      <c r="G35" t="n">
+        <v>336</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Huevos docena</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>45954.41666666666</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Jabón en barra</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G36" t="n">
+        <v>125</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Jabón en barra</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Tienda Don Chente</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>45954.46527777778</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Leche Entera 1L</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>21</v>
+      </c>
+      <c r="G37" t="n">
+        <v>210</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Leche Entera 1L</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>45954.5625</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Agua Pura 600ml</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Ferre El Amigo</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>40</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>200</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Agua Pura 600ml</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Ferre El Amigo</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>45954.625</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Pan Molde Blanco</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="G39" t="n">
+        <v>487.5</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Pan Molde Blanco</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Comedor La Bendición</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>45954.66666666666</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Coca Cola 600ml</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>MiniMarket El Ahorro</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Coca Cola 600ml</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>MiniMarket El Ahorro</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>45954.71527777778</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti 400g</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Carlos Jiménez</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>24</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G41" t="n">
+        <v>150</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti 400g</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Carlos Jiménez</t>
         </is>
       </c>
     </row>
